--- a/метопт1.xlsx
+++ b/метопт1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MKYrii\Documents\itmo\3 курс\метопт\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F83C27-ED28-4C93-8B5B-857445B05D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42E7F6D-3F6B-4589-BD83-E251642D69AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="19386" windowHeight="12986" xr2:uid="{18361EE6-B0A1-4C03-9079-221C9143B409}"/>
   </bookViews>
@@ -22,26 +22,38 @@
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Лист1!$F$7</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Лист1!$F$8</definedName>
-    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Лист1!$F$9</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Лист1!$B$10</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Лист1!$B$7</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Лист1!$B$8</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">Лист1!$B$9</definedName>
+    <definedName name="solver_lhs5" localSheetId="0" hidden="1">Лист1!$F$7</definedName>
+    <definedName name="solver_lhs6" localSheetId="0" hidden="1">Лист1!$F$8</definedName>
+    <definedName name="solver_lhs7" localSheetId="0" hidden="1">Лист1!$F$9</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">7</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">Лист1!$D$11</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel2" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">10</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">6</definedName>
-    <definedName name="solver_rhs3" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel4" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel5" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel6" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel7" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs4" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs5" localSheetId="0" hidden="1">10</definedName>
+    <definedName name="solver_rhs6" localSheetId="0" hidden="1">6</definedName>
+    <definedName name="solver_rhs7" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
@@ -483,7 +495,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
